--- a/Auddict/xlsx/Master Solo Brass.xlsx
+++ b/Auddict/xlsx/Master Solo Brass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6345" windowWidth="28830" windowHeight="6405" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="6345" windowWidth="28830" windowHeight="6405" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MSW Bassoon" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -58,6 +73,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,6 +116,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -108,6 +153,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,6 +196,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -152,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -614,13 +689,31 @@
   </si>
   <si>
     <t>Legato Natural Vib</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>MSW Piccolo</t>
+  </si>
+  <si>
+    <t>MSW Bassoon</t>
+  </si>
+  <si>
+    <t>MSW Clarinet</t>
+  </si>
+  <si>
+    <t>MSW Flute</t>
+  </si>
+  <si>
+    <t>MSW Oboe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -665,8 +758,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +819,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -778,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +944,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,13 +1040,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1233,7 +1345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1241,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1261,100 +1373,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1362,12 +1433,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1375,13 +1442,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1390,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1402,13 +1469,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1417,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1429,13 +1496,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1444,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1456,13 +1523,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1471,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1483,13 +1550,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1498,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -1510,13 +1577,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -1525,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -1537,13 +1604,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -1552,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -1564,13 +1631,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -1579,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -1590,26 +1657,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3110,26 +3205,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3148,7 +3272,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3157,7 +3281,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3166,7 +3290,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3176,12 +3300,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3196,100 +3320,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3297,12 +3380,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3310,13 +3389,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3325,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -3337,13 +3416,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3352,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -3364,13 +3443,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3379,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -3391,13 +3470,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3406,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -3418,13 +3497,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3433,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -3445,13 +3524,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -3460,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -3471,26 +3550,54 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="12">
+        <v>120</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -5017,26 +5124,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5054,7 +5190,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5063,7 +5199,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5072,7 +5208,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5082,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5102,100 +5238,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -5203,12 +5298,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -5216,13 +5307,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -5231,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -5243,13 +5334,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -5258,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -5270,13 +5361,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -5285,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -5297,13 +5388,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -5312,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -5324,13 +5415,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -5339,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -5351,13 +5442,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -5366,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -5378,13 +5469,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -5393,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -5405,13 +5496,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -5420,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -5431,26 +5522,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6951,26 +7070,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6988,7 +7136,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6997,7 +7145,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7006,7 +7154,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7016,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -7036,100 +7184,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -7137,12 +7244,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -7150,13 +7253,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -7165,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -7177,13 +7280,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -7192,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -7204,13 +7307,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -7219,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -7231,13 +7334,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -7246,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -7258,13 +7361,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -7273,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -7285,13 +7388,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -7300,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -7312,13 +7415,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -7327,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -7339,13 +7442,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -7354,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -7365,26 +7468,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -8885,26 +9016,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8922,7 +9082,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8931,7 +9091,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8940,7 +9100,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8950,10 +9110,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8970,100 +9130,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -9071,12 +9190,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -9084,13 +9199,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -9099,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -9111,13 +9226,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -9126,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -9138,13 +9253,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -9153,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -9165,13 +9280,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -9180,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -9192,13 +9307,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -9207,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -9219,13 +9334,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -9234,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -9246,13 +9361,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -9261,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -9273,13 +9388,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -9288,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -9299,26 +9414,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -10819,26 +10962,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -10856,7 +11028,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10865,7 +11037,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -10874,7 +11046,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
